--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/202.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/202.xlsx
@@ -479,13 +479,13 @@
         <v>-13.44843818497167</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.69723859172099</v>
+        <v>-14.69945119090124</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06945738041444888</v>
+        <v>-0.06759827341092377</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.17328817423632</v>
+        <v>-11.17623394237571</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.13073140183764</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.85143973459084</v>
+        <v>-14.85342976462278</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0005133136499193962</v>
+        <v>0.001581454804756775</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.87961472919356</v>
+        <v>-10.88237720509317</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.80231368056437</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.21299676986795</v>
+        <v>-15.21518318444252</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0370485032029927</v>
+        <v>0.03898616402356815</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.51460132596624</v>
+        <v>-10.51758637101415</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.48435838376883</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.72271939640487</v>
+        <v>-15.72511528782491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1646591790012967</v>
+        <v>0.1668848704843901</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.32816693350006</v>
+        <v>-10.33129599387923</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.16648408067686</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.20752737063399</v>
+        <v>-16.21009346199097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1560313514285992</v>
+        <v>0.1581392121861171</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.16955368457255</v>
+        <v>-10.17281366798014</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.84375751975461</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.77831249762472</v>
+        <v>-16.78128445036979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.290960624515428</v>
+        <v>0.2937231004150322</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.02192487772925</v>
+        <v>-10.02514558422831</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.50542188581493</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.36431088051754</v>
+        <v>-17.36761014083365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4408020305389829</v>
+        <v>0.4432764757760692</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.816493553839722</v>
+        <v>-9.819701168035946</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.14501020515298</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0913002727129</v>
+        <v>-18.09504467132563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7184635892063094</v>
+        <v>0.7212522497115971</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.853243647916448</v>
+        <v>-9.856516723626878</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.75447489578841</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.57402657079018</v>
+        <v>-18.57803281545975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7604636967225666</v>
+        <v>0.7629119573539693</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.50708316078121</v>
+        <v>-9.510225313463225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.32648349188006</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.17807923930174</v>
+        <v>-19.18239969923951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8859796040661944</v>
+        <v>0.8884278646975972</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.459819947522579</v>
+        <v>-9.463079930930169</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.857076320512666</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.72497091360632</v>
+        <v>-19.72938301966398</v>
       </c>
       <c r="F12" t="n">
-        <v>1.044278637725504</v>
+        <v>1.047041113625109</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.968321806541342</v>
+        <v>-8.971621066857455</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.34459805504475</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.53763633559794</v>
+        <v>-20.54227101080391</v>
       </c>
       <c r="F13" t="n">
-        <v>1.228958661610892</v>
+        <v>1.231930614355964</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.476378527263483</v>
+        <v>-8.480096741270534</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.805106148410632</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.36956053506974</v>
+        <v>-21.3742213948814</v>
       </c>
       <c r="F14" t="n">
-        <v>1.549602250507605</v>
+        <v>1.552927695429404</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.019980850200913</v>
+        <v>-8.024209664018791</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.255743795239212</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.19301401460294</v>
+        <v>-22.19779270514017</v>
       </c>
       <c r="F15" t="n">
-        <v>1.662536454820335</v>
+        <v>1.66599282277055</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.579293936548414</v>
+        <v>-7.58396788866291</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.718513595783969</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.05042892770758</v>
+        <v>-23.0550766952164</v>
       </c>
       <c r="F16" t="n">
-        <v>1.94080025941838</v>
+        <v>1.944387550397013</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.000836720092431</v>
+        <v>-7.005170272333042</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.216624124163042</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.66358074669414</v>
+        <v>-23.66812377578022</v>
       </c>
       <c r="F17" t="n">
-        <v>2.131293265765494</v>
+        <v>2.134932925955495</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.914309690611463</v>
+        <v>-6.918787258183333</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.768987717111715</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.47585339960051</v>
+        <v>-24.48051425941216</v>
       </c>
       <c r="F18" t="n">
-        <v>2.547130988624398</v>
+        <v>2.551163417899649</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.513266269963711</v>
+        <v>-6.517730745232739</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.39631543485602</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.32601517693083</v>
+        <v>-25.3308986058908</v>
       </c>
       <c r="F19" t="n">
-        <v>2.812302490380718</v>
+        <v>2.816387288867336</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.210284197600486</v>
+        <v>-6.214539196024047</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.11066628599952</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.07914989790113</v>
+        <v>-26.08404641916393</v>
       </c>
       <c r="F20" t="n">
-        <v>3.034112285125241</v>
+        <v>3.038197083611859</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.097271439470706</v>
+        <v>-6.102037037705094</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.919020629492335</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.663158250762</v>
+        <v>-26.66808095663049</v>
       </c>
       <c r="F21" t="n">
-        <v>3.351862475093932</v>
+        <v>3.35579016594645</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.767201392527951</v>
+        <v>-5.771665867796979</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.821096632572068</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.24951012583155</v>
+        <v>-27.25447210860856</v>
       </c>
       <c r="F22" t="n">
-        <v>3.558354275513636</v>
+        <v>3.561941566492269</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.620698523729035</v>
+        <v>-5.625739060323101</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.810992128127737</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.69690029853901</v>
+        <v>-27.70163971216771</v>
       </c>
       <c r="F23" t="n">
-        <v>3.741044269367082</v>
+        <v>3.744553006528664</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.422022828105843</v>
+        <v>-5.426880072460123</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.881339679610379</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.92630362893173</v>
+        <v>-27.93108231946896</v>
       </c>
       <c r="F24" t="n">
-        <v>3.876916188258515</v>
+        <v>3.880451110025781</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.259560442142864</v>
+        <v>-5.264496240314195</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.020571918618461</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.19375319138251</v>
+        <v>-28.19838786658848</v>
       </c>
       <c r="F25" t="n">
-        <v>4.192100286870228</v>
+        <v>4.195687577848861</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.966279766185358</v>
+        <v>-4.971032272116904</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.21854031304689</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.15369074468683</v>
+        <v>-28.15829923528712</v>
       </c>
       <c r="F26" t="n">
-        <v>4.352376258258639</v>
+        <v>4.356303949111156</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.969919426375358</v>
+        <v>-4.97486831684953</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.461083041144425</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.04583635387669</v>
+        <v>-28.05028773684288</v>
       </c>
       <c r="F27" t="n">
-        <v>4.30558436790231</v>
+        <v>4.309276397303677</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.786011848357631</v>
+        <v>-4.790423954415293</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.733688949109608</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.99440978831439</v>
+        <v>-27.99900518661184</v>
       </c>
       <c r="F28" t="n">
-        <v>4.285631698371519</v>
+        <v>4.288957143293318</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.702142556353535</v>
+        <v>-4.706214262537311</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.020526588858201</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.78146348259371</v>
+        <v>-27.78577085022864</v>
       </c>
       <c r="F29" t="n">
-        <v>4.274031918053749</v>
+        <v>4.277278809158497</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.582832400556885</v>
+        <v>-4.586720814500878</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.308333380120243</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.63598181341646</v>
+        <v>-27.64015825802296</v>
       </c>
       <c r="F30" t="n">
-        <v>4.177332169264761</v>
+        <v>4.180291029706991</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.536485648497175</v>
+        <v>-4.540334785532642</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.586158684649303</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.19168142417964</v>
+        <v>-27.19570076115205</v>
       </c>
       <c r="F31" t="n">
-        <v>4.032505115229587</v>
+        <v>4.035280683432033</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.628459075960301</v>
+        <v>-4.631915443910516</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.843727695333807</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.81582759419937</v>
+        <v>-26.81965054662915</v>
       </c>
       <c r="F32" t="n">
-        <v>3.946881454644699</v>
+        <v>3.949526099818728</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.708662523168714</v>
+        <v>-4.712079614210404</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.071733694949502</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.39615382660784</v>
+        <v>-26.39997677903762</v>
       </c>
       <c r="F33" t="n">
-        <v>3.813785103955712</v>
+        <v>3.81635119531269</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.647338176658069</v>
+        <v>-4.649864991106522</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.260562565883006</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.91004971439739</v>
+        <v>-25.9137548361016</v>
       </c>
       <c r="F34" t="n">
-        <v>3.68474736714766</v>
+        <v>3.687130166264854</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.468746073594084</v>
+        <v>-4.470867026654443</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.404585657061245</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.50367772649306</v>
+        <v>-25.50716027904895</v>
       </c>
       <c r="F35" t="n">
-        <v>3.445315332778173</v>
+        <v>3.447750501106734</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.475973024762717</v>
+        <v>-4.477727393343508</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.499744866756346</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.81459055102449</v>
+        <v>-24.81809928818607</v>
       </c>
       <c r="F36" t="n">
-        <v>3.229318520495376</v>
+        <v>3.231360919738686</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.746041047781842</v>
+        <v>-4.747599031820007</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.547033865634514</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.33649892815318</v>
+        <v>-24.33981128077213</v>
       </c>
       <c r="F37" t="n">
-        <v>3.0985787843179</v>
+        <v>3.100699737378259</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.741118341913353</v>
+        <v>-4.742335926077634</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.548299724061591</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.92199662018413</v>
+        <v>-23.92513877286614</v>
       </c>
       <c r="F38" t="n">
-        <v>3.025890318940637</v>
+        <v>3.02795890278963</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.884570704150145</v>
+        <v>-4.885945395948527</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.506725769381129</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.42270855901207</v>
+        <v>-23.42575906557419</v>
       </c>
       <c r="F39" t="n">
-        <v>2.997506206379775</v>
+        <v>2.999627159440134</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.75664581308364</v>
+        <v>-4.757745566522345</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.428940195277068</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.03999436234273</v>
+        <v>-23.04294013048212</v>
       </c>
       <c r="F40" t="n">
-        <v>3.085512666081857</v>
+        <v>3.088078757438836</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.743854633207274</v>
+        <v>-4.744679448286303</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.322100641953607</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.50982155876703</v>
+        <v>-22.51270186539221</v>
       </c>
       <c r="F41" t="n">
-        <v>3.103580044003439</v>
+        <v>3.1058581046979</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.671912429091989</v>
+        <v>-4.672737244171018</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.198137125382789</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.83465150121922</v>
+        <v>-21.83729614639325</v>
       </c>
       <c r="F42" t="n">
-        <v>3.199206223959406</v>
+        <v>3.201379546231133</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.699078957488571</v>
+        <v>-4.699969234081808</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.066270694268376</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.17180130064547</v>
+        <v>-21.17440666891097</v>
       </c>
       <c r="F43" t="n">
-        <v>3.317324980197459</v>
+        <v>3.319524487074869</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.741642034027022</v>
+        <v>-4.742728695162885</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.934717388174475</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.8832076691053</v>
+        <v>-20.88566902203954</v>
       </c>
       <c r="F44" t="n">
-        <v>3.224971875951923</v>
+        <v>3.226988090589549</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.7936577532172</v>
+        <v>-4.794613491324646</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.808762386126898</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.39782363355115</v>
+        <v>-20.40007550963993</v>
       </c>
       <c r="F45" t="n">
-        <v>3.350919829289328</v>
+        <v>3.353145520772422</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.742283556866266</v>
+        <v>-4.743095279642453</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.695166752242843</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.06953413979487</v>
+        <v>-20.07190384660922</v>
       </c>
       <c r="F46" t="n">
-        <v>3.379330126455874</v>
+        <v>3.381477264121917</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.720105195852383</v>
+        <v>-4.720393226514901</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.599688914587317</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.52731641760478</v>
+        <v>-19.5294242783623</v>
       </c>
       <c r="F47" t="n">
-        <v>3.387552092640478</v>
+        <v>3.389620676489471</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.991076587767587</v>
+        <v>-4.991194418493163</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.524783553188862</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.05268116268369</v>
+        <v>-19.05472356192699</v>
       </c>
       <c r="F48" t="n">
-        <v>3.317822487705445</v>
+        <v>3.319733963920337</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.10661616034582</v>
+        <v>-5.10669471416287</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.470404830951161</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.66425872197536</v>
+        <v>-18.66662842878971</v>
       </c>
       <c r="F49" t="n">
-        <v>3.337041988277099</v>
+        <v>3.338927279886307</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.39431951529275</v>
+        <v>-5.39454208444106</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.432107652003261</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.15021563550067</v>
+        <v>-18.15246751158944</v>
       </c>
       <c r="F50" t="n">
-        <v>3.476736859598316</v>
+        <v>3.478988735687093</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.313317437610991</v>
+        <v>-5.312819930103005</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.408716478269463</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.4849433589012</v>
+        <v>-17.48731306571555</v>
       </c>
       <c r="F51" t="n">
-        <v>3.493180791967524</v>
+        <v>3.495563591084718</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.526250651028824</v>
+        <v>-5.525740051217997</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.396828196757947</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.09301218103129</v>
+        <v>-17.09530333402859</v>
       </c>
       <c r="F52" t="n">
-        <v>3.322928485813718</v>
+        <v>3.325101808085444</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.815354882379819</v>
+        <v>-5.815433436196869</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.394784228243066</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.70244260265692</v>
+        <v>-16.70487777098548</v>
       </c>
       <c r="F53" t="n">
-        <v>3.358094411246594</v>
+        <v>3.360136810489903</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845977778726616</v>
+        <v>-5.84593850181809</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.399699864996622</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.50434296835876</v>
+        <v>-16.50710544425836</v>
       </c>
       <c r="F54" t="n">
-        <v>3.09342041699826</v>
+        <v>3.095384262424519</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.023771251317256</v>
+        <v>-6.023509405260421</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.407351873249175</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.21337963000424</v>
+        <v>-16.21633849044647</v>
       </c>
       <c r="F55" t="n">
-        <v>2.945870163972007</v>
+        <v>2.947860194003949</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.167419998096674</v>
+        <v>-6.16685702907448</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.415691724862076</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.88295609088476</v>
+        <v>-15.88622916659519</v>
       </c>
       <c r="F56" t="n">
-        <v>2.892139353109563</v>
+        <v>2.894155567747189</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475966299167633</v>
+        <v>-6.47587465304774</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.421599945479082</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.33640481645406</v>
+        <v>-15.33963861525596</v>
       </c>
       <c r="F57" t="n">
-        <v>2.927540939993591</v>
+        <v>2.929897554505101</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.733596634487118</v>
+        <v>-6.733465711458701</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.424771250964495</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.13370978385846</v>
+        <v>-15.13715305950583</v>
       </c>
       <c r="F58" t="n">
-        <v>2.769071706397338</v>
+        <v>2.771480690120216</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709179489687299</v>
+        <v>-6.709127120475932</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.422518174522822</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.78880615779602</v>
+        <v>-14.79238035647182</v>
       </c>
       <c r="F59" t="n">
-        <v>2.894024644718772</v>
+        <v>2.896747843709851</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.819560694945892</v>
+        <v>-6.819403587311791</v>
       </c>
     </row>
     <row r="60">
@@ -1813,10 +1813,10 @@
         <v>-7.411171778295905</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.73248307097092</v>
+        <v>-14.73629293109786</v>
       </c>
       <c r="F60" t="n">
-        <v>2.7129580964177</v>
+        <v>2.715681295408779</v>
       </c>
       <c r="G60" t="n">
         <v>-6.823632401129668</v>
@@ -1836,13 +1836,13 @@
         <v>-7.385695341286922</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.38849590610741</v>
+        <v>-14.39224030472014</v>
       </c>
       <c r="F61" t="n">
-        <v>2.598845584849216</v>
+        <v>2.601621153051662</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.230030573639687</v>
+        <v>-7.230357881210731</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.34275226539082</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.18079961382626</v>
+        <v>-14.18493678152425</v>
       </c>
       <c r="F62" t="n">
-        <v>2.552263171338355</v>
+        <v>2.555169662569218</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.17703293173638</v>
+        <v>-7.17695437791933</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.28006540162135</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.86176637817909</v>
+        <v>-13.86592973048275</v>
       </c>
       <c r="F63" t="n">
-        <v>2.479862736623609</v>
+        <v>2.482769227854472</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.377227334489214</v>
+        <v>-7.37750227284889</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.194335688718249</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.6737609093719</v>
+        <v>-13.67815992312672</v>
       </c>
       <c r="F64" t="n">
-        <v>2.391096923356707</v>
+        <v>2.394108153010304</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.395779127615939</v>
+        <v>-7.395347081622162</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.082762045104057</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.48388324125835</v>
+        <v>-13.48837390113306</v>
       </c>
       <c r="F65" t="n">
-        <v>2.150408027914414</v>
+        <v>2.152738457820242</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741690860997184</v>
+        <v>-7.741730137905709</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.941395405564858</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.26813518272954</v>
+        <v>-13.27271748872415</v>
       </c>
       <c r="F66" t="n">
-        <v>2.083899129478446</v>
+        <v>2.086229559384273</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.786505813624412</v>
+        <v>-7.786230875264736</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.772716841170588</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.09828873796383</v>
+        <v>-13.10291032086696</v>
       </c>
       <c r="F67" t="n">
-        <v>2.356716536094334</v>
+        <v>2.359963427199082</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.863436185122395</v>
+        <v>-7.863632569665021</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.578854640864895</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.04805357196013</v>
+        <v>-13.0528453548002</v>
       </c>
       <c r="F68" t="n">
-        <v>2.067769412377439</v>
+        <v>2.070387872945785</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.764628575575887</v>
+        <v>-7.764353637216212</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.363557675283687</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.9076648085883</v>
+        <v>-12.91249586833689</v>
       </c>
       <c r="F69" t="n">
-        <v>2.124904221978732</v>
+        <v>2.128229666900531</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.836950456473582</v>
+        <v>-7.836675518113906</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.13025197151166</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.88417721729024</v>
+        <v>-12.88933558460988</v>
       </c>
       <c r="F70" t="n">
-        <v>2.123987760779811</v>
+        <v>2.127129913461826</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.746233890083263</v>
+        <v>-7.745828028695169</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.881079177462309</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.57864214587288</v>
+        <v>-12.58363031325558</v>
       </c>
       <c r="F71" t="n">
-        <v>2.079290638878159</v>
+        <v>2.08248516077154</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.456422674378815</v>
+        <v>-7.45540147475716</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.621423263677807</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.51086329406126</v>
+        <v>-12.51579909223259</v>
       </c>
       <c r="F72" t="n">
-        <v>2.08848143547305</v>
+        <v>2.091492665126647</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.520692789028848</v>
+        <v>-7.519933435464027</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.35675054375206</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.19803580996106</v>
+        <v>-12.20178020857379</v>
       </c>
       <c r="F73" t="n">
-        <v>2.064548705878375</v>
+        <v>2.067586120137655</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.256071163991881</v>
+        <v>-7.254696472193499</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.093236538811242</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.39984056596343</v>
+        <v>-12.403598056879</v>
       </c>
       <c r="F74" t="n">
-        <v>2.088638543107151</v>
+        <v>2.091571218943697</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.204696967640947</v>
+        <v>-7.203584121899401</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.836118734946033</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.53258342447569</v>
+        <v>-12.53636709999695</v>
       </c>
       <c r="F75" t="n">
-        <v>2.020610937541542</v>
+        <v>2.023569797983773</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.132100148383576</v>
+        <v>-7.131222964093181</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.590227565870858</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.79198122067881</v>
+        <v>-12.79545068093186</v>
       </c>
       <c r="F76" t="n">
-        <v>2.001417621575572</v>
+        <v>2.004167005172334</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.786843030144418</v>
+        <v>-6.78533741531762</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.360561934112764</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.36793780729202</v>
+        <v>-13.37125015991098</v>
       </c>
       <c r="F77" t="n">
-        <v>1.994138301195572</v>
+        <v>1.996966238609385</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.728765574738522</v>
+        <v>-6.727744375116867</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.153847215116422</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.86049642480344</v>
+        <v>-13.86365166978829</v>
       </c>
       <c r="F78" t="n">
-        <v>2.044438928713484</v>
+        <v>2.047371604550031</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.742905261807586</v>
+        <v>-6.742512492722334</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.977199363767004</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.34910116685665</v>
+        <v>-14.35223022723583</v>
       </c>
       <c r="F79" t="n">
-        <v>2.089581188911755</v>
+        <v>2.092461495536935</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.645563990179352</v>
+        <v>-6.645498528665144</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.836539714599264</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.89760319441077</v>
+        <v>-14.90067988557857</v>
       </c>
       <c r="F80" t="n">
-        <v>1.979920060309458</v>
+        <v>1.982381413243702</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.294729550929619</v>
+        <v>-6.294310597238684</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.738021274250499</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.66980030831861</v>
+        <v>-15.67283772257789</v>
       </c>
       <c r="F81" t="n">
-        <v>2.07824325465082</v>
+        <v>2.080861715219166</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.23595820347311</v>
+        <v>-6.235774911233326</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.686128003019771</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.39913322272265</v>
+        <v>-16.40205280625635</v>
       </c>
       <c r="F82" t="n">
-        <v>2.05033046499226</v>
+        <v>2.052687079503771</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.135461686860022</v>
+        <v>-6.135212933106028</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.687898048771595</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.27563671337052</v>
+        <v>-17.27859557381275</v>
       </c>
       <c r="F83" t="n">
-        <v>2.031110964420607</v>
+        <v>2.033572317354851</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.840557565350141</v>
+        <v>-5.840164796264889</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.748889464077076</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.32955399982663</v>
+        <v>-18.33244739875465</v>
       </c>
       <c r="F84" t="n">
-        <v>2.044124713445282</v>
+        <v>2.046271851111325</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.728539822236333</v>
+        <v>-5.728461268419283</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.875453432203805</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.12890454982822</v>
+        <v>-19.13174557954487</v>
       </c>
       <c r="F85" t="n">
-        <v>2.070204580706001</v>
+        <v>2.072508826006144</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.590442211861807</v>
+        <v>-5.590651688707275</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.07211148208773</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.27675910917371</v>
+        <v>-20.27984889264436</v>
       </c>
       <c r="F86" t="n">
-        <v>2.058002554457512</v>
+        <v>2.060254430546289</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252582244728224</v>
+        <v>-5.252621521636749</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.341112354407103</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.34265585272999</v>
+        <v>-21.34577182080632</v>
       </c>
       <c r="F87" t="n">
-        <v>1.88277517322385</v>
+        <v>1.884241511142124</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.892373716643815</v>
+        <v>-4.892046409072771</v>
       </c>
     </row>
     <row r="88">
@@ -2457,10 +2457,10 @@
         <v>-4.683400368522125</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.6848001862467</v>
+        <v>-22.68783760050598</v>
       </c>
       <c r="F88" t="n">
-        <v>1.97667316920471</v>
+        <v>1.9782704301514</v>
       </c>
       <c r="G88" t="n">
         <v>-4.661870632812385</v>
@@ -2480,13 +2480,13 @@
         <v>-5.095278277389106</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.06610359756301</v>
+        <v>-24.06878751964556</v>
       </c>
       <c r="F89" t="n">
-        <v>1.842634172711118</v>
+        <v>1.84454564892601</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.277454436773624</v>
+        <v>-4.277271144533841</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.57633277498202</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.53530873015866</v>
+        <v>-25.53790100612133</v>
       </c>
       <c r="F90" t="n">
-        <v>1.628679759671631</v>
+        <v>1.630329389829688</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.163433571325032</v>
+        <v>-4.163577586656291</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.120586138050579</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.17872004436633</v>
+        <v>-27.18127304342047</v>
       </c>
       <c r="F91" t="n">
-        <v>1.423968512438402</v>
+        <v>1.425461034962359</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.062387177992591</v>
+        <v>-4.062282439569857</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.718422624266712</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.77287811528342</v>
+        <v>-28.77498597604094</v>
       </c>
       <c r="F92" t="n">
-        <v>1.301346004022796</v>
+        <v>1.30266832660981</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.79265955484735</v>
+        <v>-3.792450078001882</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.356844833166955</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.62199569174029</v>
+        <v>-30.62392026025802</v>
       </c>
       <c r="F93" t="n">
-        <v>1.162593778506183</v>
+        <v>1.16386373188183</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.783586588978034</v>
+        <v>-3.783167635287099</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.014106690684132</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.69973106041937</v>
+        <v>-32.70138069057743</v>
       </c>
       <c r="F94" t="n">
-        <v>1.048965682142842</v>
+        <v>1.050130897095756</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.777734329607782</v>
+        <v>-3.777145175979904</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.676272889395406</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.73059598492508</v>
+        <v>-34.73199686132914</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6447408319045499</v>
+        <v>0.6459322314631469</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.763097135030733</v>
+        <v>-3.762416335282963</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.324978254225194</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.70114467023895</v>
+        <v>-36.70234916210039</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4210457455508183</v>
+        <v>0.4224728065605664</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.976226732991191</v>
+        <v>-3.975703040877522</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.939726083801578</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.78968118876246</v>
+        <v>-38.79068929608128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03915636396051059</v>
+        <v>0.04036085582194939</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.973019118794968</v>
+        <v>-3.972128842201731</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.5040070761556</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01225670377956</v>
+        <v>-41.01276730359039</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1704121276269986</v>
+        <v>-0.1689850666172504</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.173187336942118</v>
+        <v>-4.172270875743197</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.99635049928222</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39121977624108</v>
+        <v>-43.39153399150928</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.09119060313171415</v>
+        <v>-0.08978972672764945</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.502131445840486</v>
+        <v>-4.501254261550089</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.4127292260914</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79626271596332</v>
+        <v>-45.79623653135764</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3600148573808755</v>
+        <v>-0.3591245807876381</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.685371316413284</v>
+        <v>-4.684232286066053</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.73771489030278</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19490351959595</v>
+        <v>-48.19486424268742</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.295993496484835</v>
+        <v>-0.2947235431091876</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.962509182966941</v>
+        <v>-4.961042845048667</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.98651315239534</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41094597549503</v>
+        <v>-50.4105924833183</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4426796575235339</v>
+        <v>-0.4415013502677785</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.320871696350667</v>
+        <v>-5.319562466066494</v>
       </c>
     </row>
   </sheetData>
